--- a/tokenizing-test-cases.xlsx
+++ b/tokenizing-test-cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Desktop\SEM1 CPP\CPR101\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF3780-CB09-4976-89C5-1904ED5422C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE90BE9B-EF2A-4138-886F-468BC26598D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example to be deleted" sheetId="2" r:id="rId1"/>
@@ -298,6 +298,9 @@
     <author>tc={510CF56B-036B-4DD4-8BE1-8BACE085202D}</author>
     <author>tc={E92FB2A3-2684-4F0D-9A5D-FECAC413DB10}</author>
     <author>tc={036B8DD5-4E62-4152-9262-F490F9DA7BBA}</author>
+    <author>tc={C28E6131-F24E-4569-B75C-563AC1034336}</author>
+    <author>tc={AAACD983-9ADB-44CB-989A-C428F25EBE30}</author>
+    <author>tc={A8564945-41FB-43FA-9394-19B0461C461A}</author>
   </authors>
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{73CDDCC5-DEF9-4198-AB6F-663FBFA75AEC}">
@@ -1295,6 +1298,195 @@
         </r>
       </text>
     </comment>
+    <comment ref="D23" authorId="7" shapeId="0" xr:uid="{C28E6131-F24E-4569-B75C-563AC1034336}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Senetnce #1 is 'I'
+Senetnce #2 is 'STUDY'
+Senetnce #3 is 'AT'
+Senetnce #4 is 'SENECA'
+Senetnce #5 is 'COLLEGE'
+Senetnce #6 is 'NEWNHAM'
+Senetnce #7 is 'CAMPUS'
+Senetnce #8 is 'MY'
+Senetnce #9 is 'COURSE'
+Senetnce #10 is 'IS'
+Senetnce #11 is 'COMPUTER'
+Senetnce #12 is 'PROGRAMMING(CPP)'
+Senetnce #13 is 'I'
+Senetnce #14 is 'LOVE'
+Senetnce #15 is 'MY'
+Senetnce #16 is 'COLLEGE'
+Senetnce #17 is 'MY'
+Senetnce #18 is 'FIRST'
+Senetnce #19 is 'SEMESTER'
+Senetnce #20 is 'IS'
+Senetnce #21 is 'GOING'
+Senetnce #22 is 'TO'
+Senetnce #23 is 'END'
+Senetnce #24 is 'SOON'
+Senetnce #25 is 'I'
+Senetnce #26 is 'HAD'
+Senetnce #27 is 'A'
+Senetnce #28 is 'LOT'
+Senetnce #29 is 'OF'
+Senetnce #30 is 'FUN'
+Senetnce #31 is 'DURING'
+Senetnce #32 is 'THE'
+Senetnce #33 is 'FIRST'
+Senetnce #34 is 'SEMESTER'
+Senetnce #35 is 'I'
+Senetnce #36 is 'LEARNED'
+Senetnce #37 is 'A'
+Senetnce #38 is 'LOT'
+Senetnce #39 is 'OF'
+Senetnce #40 is 'NEW'
+Senetnce #41 is 'THINGS'
+Senetnce #42 is 'AND'
+Senetnce #43 is 'HAD'
+Senetnce #44 is 'GREAT'
+Senetnce #45 is 'EXPERIENCE'
+Senetnce #46 is 'SENECA'
+Senetnce #47 is 'HAS'
+Senetnce #48 is '4'
+Senetnce #49 is 'CAMPUSES'
+Senetnce #50 is 'NEWNHAM'
+Senetnce #51 is 'YORK'
+Senetnce #52 is 'MARKHAM'
+Senetnce #53 is 'AND'
+Senetnce #54 is 'KING'</t>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="8" shapeId="0" xr:uid="{AAACD983-9ADB-44CB-989A-C428F25EBE30}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Senetnce #1 is 'I'
+Senetnce #2 is 'STUDY'
+Senetnce #3 is 'AT'
+Senetnce #4 is 'SENECA'
+Senetnce #5 is 'COLLEGE'
+Senetnce #6 is 'NEWNHAM'
+Senetnce #7 is 'CAMPUS'
+Senetnce #8 is 'MY'
+Senetnce #9 is 'COURSE'
+Senetnce #10 is 'IS'
+Senetnce #11 is 'COMPUTER'
+Senetnce #12 is 'PROGRAMMING(CPP)'
+Senetnce #13 is 'I'
+Senetnce #14 is 'LOVE'
+Senetnce #15 is 'MY'
+Senetnce #16 is 'COLLEGE'
+Senetnce #17 is 'MY'
+Senetnce #18 is 'FIRST'
+Senetnce #19 is 'SEMESTER'
+Senetnce #20 is 'IS'
+Senetnce #21 is 'GOING'
+Senetnce #22 is 'TO'
+Senetnce #23 is 'END'
+Senetnce #24 is 'SOON'
+Senetnce #25 is 'I'
+Senetnce #26 is 'HAD'
+Senetnce #27 is 'A'
+Senetnce #28 is 'LOT'
+Senetnce #29 is 'OF'
+Senetnce #30 is 'FUN'
+Senetnce #31 is 'DURING'
+Senetnce #32 is 'THE'
+Senetnce #33 is 'FIRST'
+Senetnce #34 is 'SEMESTER'
+Senetnce #35 is 'I'
+Senetnce #36 is 'LEARNED'
+Senetnce #37 is 'A'
+Senetnce #38 is 'LOT'
+Senetnce #39 is 'OF'
+Senetnce #40 is 'NEW'
+Senetnce #41 is 'THINGS'
+Senetnce #42 is 'AND'
+Senetnce #43 is 'HAD'
+Senetnce #44 is 'GREAT'
+Senetnce #45 is 'EXPERIENCE'
+Senetnce #46 is 'SENECA'
+Senetnce #47 is 'HAS'
+Senetnce #48 is '4'
+Senetnce #49 is 'CAMPUSES'
+Senetnce #50 is 'NEWNHAM'
+Senetnce #51 is 'YORK'
+Senetnce #52 is 'MARKHAM'
+Senetnce #53 is 'AND'
+Senetnce #54 is 'KING'
+</t>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="9" shapeId="0" xr:uid="{A8564945-41FB-43FA-9394-19B0461C461A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Senetnce #1 is 'I'
+Senetnce #2 is 'STUDY'
+Senetnce #3 is 'AT'
+Senetnce #4 is 'SENECA'
+Senetnce #5 is 'COLLEGE'
+Senetnce #6 is 'NEWNHAM'
+Senetnce #7 is 'CAMPUS'
+Senetnce #8 is 'MY'
+Senetnce #9 is 'COURSE'
+Senetnce #10 is 'IS'
+Senetnce #11 is 'COMPUTER'
+Senetnce #12 is 'PROGRAMMING(CPP)'
+Senetnce #13 is 'I'
+Senetnce #14 is 'LOVE'
+Senetnce #15 is 'MY'
+Senetnce #16 is 'COLLEGE'
+Senetnce #17 is 'MY'
+Senetnce #18 is 'FIRST'
+Senetnce #19 is 'SEMESTER'
+Senetnce #20 is 'IS'
+Senetnce #21 is 'GOING'
+Senetnce #22 is 'TO'
+Senetnce #23 is 'END'
+Senetnce #24 is 'SOON'
+Senetnce #25 is 'I'
+Senetnce #26 is 'HAD'
+Senetnce #27 is 'A'
+Senetnce #28 is 'LOT'
+Senetnce #29 is 'OF'
+Senetnce #30 is 'FUN'
+Senetnce #31 is 'DURING'
+Senetnce #32 is 'THE'
+Senetnce #33 is 'FIRST'
+Senetnce #34 is 'SEMESTER'
+Senetnce #35 is 'I'
+Senetnce #36 is 'LEARNED'
+Senetnce #37 is 'A'
+Senetnce #38 is 'LOT'
+Senetnce #39 is 'OF'
+Senetnce #40 is 'NEW'
+Senetnce #41 is 'THINGS'
+Senetnce #42 is 'AND'
+Senetnce #43 is 'HAD'
+Senetnce #44 is 'GREAT'
+Senetnce #45 is 'EXPERIENCE'
+Senetnce #46 is 'SENECA'
+Senetnce #47 is 'HAS'
+Senetnce #48 is '4'
+Senetnce #49 is 'CAMPUSES'
+Senetnce #50 is 'NEWNHAM'
+Senetnce #51 is 'YORK'
+Senetnce #52 is 'MARKHAM'
+Senetnce #53 is 'AND'
+Senetnce #54 is 'KING'
+Type a few sentences separated by dot (q  - to quit):
+Senetnce #1 is 'I'
+Senetnce #2 is 'AM'
+Senetnce #3 is 'FELLING'
+Senetnce #4 is 'GREAT'</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1322,7 +1514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
   <si>
     <t>Program
 or module:</t>
@@ -1587,6 +1779,38 @@
   </si>
   <si>
     <t>Version 3</t>
+  </si>
+  <si>
+    <t>i.am.saksham</t>
+  </si>
+  <si>
+    <t>Senetnce #1 is 'i'
+Senetnce #2 is 'am'
+Senetnce #3 is 'saksham'</t>
+  </si>
+  <si>
+    <t>the code executed the statement as expected and tokenized every phrase seperated by ".".</t>
+  </si>
+  <si>
+    <t>saksham.</t>
+  </si>
+  <si>
+    <t>Senetnce #1 is 'saksham'</t>
+  </si>
+  <si>
+    <t>I.STUDY.AT.SENECA.COLLEGE..NEWNHAM.CAMPUS..MY.COURSE.IS.COMPUTER.PROGRAMMING(CPP)..I.LOVE.MY.COLLEGE..MY.FIRST.SEMESTER.IS.GOING.TO.END.SOON..I.HAD.A.LOT.OF.FUN.DURING.THE.FIRST.SEMESTER..I.LEARNED.A.LOT.OF.NEW.THINGS.AND.HAD.GREAT.EXPERIENCE..SENECA.HAS.4.CAMPUSES.NEWNHAM..YORK..MARKHAM..AND.KING</t>
+  </si>
+  <si>
+    <t>I.STUDY.AT.SENECA.COLLEGE..NEWNHAM.CAMPUS..MY.COURSE.IS.COMPUTER.PROGRAMMING(CPP)..I.LOVE.MY.COLLEGE..MY.FIRST.SEMESTER.IS.GOING.TO.END.SOON..I.HAD.A.LOT.OF.FUN.DURING.THE.FIRST.SEMESTER..I.LEARNED.A.LOT.OF.NEW.THINGS.AND.HAD.GREAT.EXPERIENCE..SENECA.HAS.4.CAMPUSES.NEWNHAM..YORK..MARKHAM..AND.KING.I.AM.FELLING.GREAT</t>
+  </si>
+  <si>
+    <t>Senetnce #1 is 'Q'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentences #1 is 'Q'       or this should exit the code </t>
+  </si>
+  <si>
+    <t>The ouput is fine but, Q could also be set as an exiting condition but the code staes that 'q' will exit so it is ok. As output is formatted so turns it to a  positive test case.</t>
   </si>
 </sst>
 </file>
@@ -2675,6 +2899,180 @@
 Type a few phrases separated by comma (q to quit):
 Phrase #1 is ' This was a tough one though'</text>
   </threadedComment>
+  <threadedComment ref="D23" dT="2022-12-15T01:44:10.67" personId="{E0E203D5-73E2-44B7-8F2D-A9B28325DA2D}" id="{C28E6131-F24E-4569-B75C-563AC1034336}">
+    <text>Senetnce #1 is 'I'
+Senetnce #2 is 'STUDY'
+Senetnce #3 is 'AT'
+Senetnce #4 is 'SENECA'
+Senetnce #5 is 'COLLEGE'
+Senetnce #6 is 'NEWNHAM'
+Senetnce #7 is 'CAMPUS'
+Senetnce #8 is 'MY'
+Senetnce #9 is 'COURSE'
+Senetnce #10 is 'IS'
+Senetnce #11 is 'COMPUTER'
+Senetnce #12 is 'PROGRAMMING(CPP)'
+Senetnce #13 is 'I'
+Senetnce #14 is 'LOVE'
+Senetnce #15 is 'MY'
+Senetnce #16 is 'COLLEGE'
+Senetnce #17 is 'MY'
+Senetnce #18 is 'FIRST'
+Senetnce #19 is 'SEMESTER'
+Senetnce #20 is 'IS'
+Senetnce #21 is 'GOING'
+Senetnce #22 is 'TO'
+Senetnce #23 is 'END'
+Senetnce #24 is 'SOON'
+Senetnce #25 is 'I'
+Senetnce #26 is 'HAD'
+Senetnce #27 is 'A'
+Senetnce #28 is 'LOT'
+Senetnce #29 is 'OF'
+Senetnce #30 is 'FUN'
+Senetnce #31 is 'DURING'
+Senetnce #32 is 'THE'
+Senetnce #33 is 'FIRST'
+Senetnce #34 is 'SEMESTER'
+Senetnce #35 is 'I'
+Senetnce #36 is 'LEARNED'
+Senetnce #37 is 'A'
+Senetnce #38 is 'LOT'
+Senetnce #39 is 'OF'
+Senetnce #40 is 'NEW'
+Senetnce #41 is 'THINGS'
+Senetnce #42 is 'AND'
+Senetnce #43 is 'HAD'
+Senetnce #44 is 'GREAT'
+Senetnce #45 is 'EXPERIENCE'
+Senetnce #46 is 'SENECA'
+Senetnce #47 is 'HAS'
+Senetnce #48 is '4'
+Senetnce #49 is 'CAMPUSES'
+Senetnce #50 is 'NEWNHAM'
+Senetnce #51 is 'YORK'
+Senetnce #52 is 'MARKHAM'
+Senetnce #53 is 'AND'
+Senetnce #54 is 'KING'</text>
+  </threadedComment>
+  <threadedComment ref="D24" dT="2022-12-15T01:47:08.95" personId="{E0E203D5-73E2-44B7-8F2D-A9B28325DA2D}" id="{AAACD983-9ADB-44CB-989A-C428F25EBE30}">
+    <text xml:space="preserve">Senetnce #1 is 'I'
+Senetnce #2 is 'STUDY'
+Senetnce #3 is 'AT'
+Senetnce #4 is 'SENECA'
+Senetnce #5 is 'COLLEGE'
+Senetnce #6 is 'NEWNHAM'
+Senetnce #7 is 'CAMPUS'
+Senetnce #8 is 'MY'
+Senetnce #9 is 'COURSE'
+Senetnce #10 is 'IS'
+Senetnce #11 is 'COMPUTER'
+Senetnce #12 is 'PROGRAMMING(CPP)'
+Senetnce #13 is 'I'
+Senetnce #14 is 'LOVE'
+Senetnce #15 is 'MY'
+Senetnce #16 is 'COLLEGE'
+Senetnce #17 is 'MY'
+Senetnce #18 is 'FIRST'
+Senetnce #19 is 'SEMESTER'
+Senetnce #20 is 'IS'
+Senetnce #21 is 'GOING'
+Senetnce #22 is 'TO'
+Senetnce #23 is 'END'
+Senetnce #24 is 'SOON'
+Senetnce #25 is 'I'
+Senetnce #26 is 'HAD'
+Senetnce #27 is 'A'
+Senetnce #28 is 'LOT'
+Senetnce #29 is 'OF'
+Senetnce #30 is 'FUN'
+Senetnce #31 is 'DURING'
+Senetnce #32 is 'THE'
+Senetnce #33 is 'FIRST'
+Senetnce #34 is 'SEMESTER'
+Senetnce #35 is 'I'
+Senetnce #36 is 'LEARNED'
+Senetnce #37 is 'A'
+Senetnce #38 is 'LOT'
+Senetnce #39 is 'OF'
+Senetnce #40 is 'NEW'
+Senetnce #41 is 'THINGS'
+Senetnce #42 is 'AND'
+Senetnce #43 is 'HAD'
+Senetnce #44 is 'GREAT'
+Senetnce #45 is 'EXPERIENCE'
+Senetnce #46 is 'SENECA'
+Senetnce #47 is 'HAS'
+Senetnce #48 is '4'
+Senetnce #49 is 'CAMPUSES'
+Senetnce #50 is 'NEWNHAM'
+Senetnce #51 is 'YORK'
+Senetnce #52 is 'MARKHAM'
+Senetnce #53 is 'AND'
+Senetnce #54 is 'KING'
+</text>
+  </threadedComment>
+  <threadedComment ref="E24" dT="2022-12-15T01:50:59.55" personId="{E0E203D5-73E2-44B7-8F2D-A9B28325DA2D}" id="{A8564945-41FB-43FA-9394-19B0461C461A}">
+    <text>Senetnce #1 is 'I'
+Senetnce #2 is 'STUDY'
+Senetnce #3 is 'AT'
+Senetnce #4 is 'SENECA'
+Senetnce #5 is 'COLLEGE'
+Senetnce #6 is 'NEWNHAM'
+Senetnce #7 is 'CAMPUS'
+Senetnce #8 is 'MY'
+Senetnce #9 is 'COURSE'
+Senetnce #10 is 'IS'
+Senetnce #11 is 'COMPUTER'
+Senetnce #12 is 'PROGRAMMING(CPP)'
+Senetnce #13 is 'I'
+Senetnce #14 is 'LOVE'
+Senetnce #15 is 'MY'
+Senetnce #16 is 'COLLEGE'
+Senetnce #17 is 'MY'
+Senetnce #18 is 'FIRST'
+Senetnce #19 is 'SEMESTER'
+Senetnce #20 is 'IS'
+Senetnce #21 is 'GOING'
+Senetnce #22 is 'TO'
+Senetnce #23 is 'END'
+Senetnce #24 is 'SOON'
+Senetnce #25 is 'I'
+Senetnce #26 is 'HAD'
+Senetnce #27 is 'A'
+Senetnce #28 is 'LOT'
+Senetnce #29 is 'OF'
+Senetnce #30 is 'FUN'
+Senetnce #31 is 'DURING'
+Senetnce #32 is 'THE'
+Senetnce #33 is 'FIRST'
+Senetnce #34 is 'SEMESTER'
+Senetnce #35 is 'I'
+Senetnce #36 is 'LEARNED'
+Senetnce #37 is 'A'
+Senetnce #38 is 'LOT'
+Senetnce #39 is 'OF'
+Senetnce #40 is 'NEW'
+Senetnce #41 is 'THINGS'
+Senetnce #42 is 'AND'
+Senetnce #43 is 'HAD'
+Senetnce #44 is 'GREAT'
+Senetnce #45 is 'EXPERIENCE'
+Senetnce #46 is 'SENECA'
+Senetnce #47 is 'HAS'
+Senetnce #48 is '4'
+Senetnce #49 is 'CAMPUSES'
+Senetnce #50 is 'NEWNHAM'
+Senetnce #51 is 'YORK'
+Senetnce #52 is 'MARKHAM'
+Senetnce #53 is 'AND'
+Senetnce #54 is 'KING'
+Type a few sentences separated by dot (q  - to quit):
+Senetnce #1 is 'I'
+Senetnce #2 is 'AM'
+Senetnce #3 is 'FELLING'
+Senetnce #4 is 'GREAT'</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2911,8 +3309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -3273,7 +3671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="40.15" thickBot="1">
+    <row r="18" spans="1:7" ht="79.900000000000006" thickBot="1">
       <c r="A18" s="40" t="s">
         <v>56</v>
       </c>
@@ -3334,41 +3732,129 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+    <row r="21" spans="1:7" ht="39.6">
+      <c r="A21" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+    <row r="22" spans="1:7" ht="26.45">
+      <c r="A22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
+    <row r="23" spans="1:7" ht="158.44999999999999">
+      <c r="A23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="28"/>
+    <row r="24" spans="1:7" ht="171.6">
+      <c r="A24" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="B24" s="29"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="25"/>
+      <c r="C24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15">
-      <c r="A25" s="28"/>
+      <c r="A25" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="B25" s="29"/>
+      <c r="C25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="28"/>
+    <row r="26" spans="1:7" ht="66">
+      <c r="A26" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="B26" s="29"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="25"/>
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15">
       <c r="A27" s="28"/>
@@ -3410,15 +3896,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EEBC3F65A651B1459AB5AB90AEA909E9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d8a047d7c98efccd97a0dbd2f09f18d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="168b1131-499a-4d9c-b7a6-eed7c13a0eb7" xmlns:ns3="ae34d4cc-e2bc-471b-8383-222203d71c04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f503e00d73f079894179059ddc44870" ns2:_="" ns3:_="">
     <xsd:import namespace="168b1131-499a-4d9c-b7a6-eed7c13a0eb7"/>
@@ -3611,6 +4088,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3622,13 +4108,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78131372-E1D2-4C4E-89CA-AF489CFB26BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3E50247-E448-4294-9D8E-10746F4F5269}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F614D8-6BF7-4B29-B5EA-2CB25706131A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D0BBC3-B7B8-4951-863A-E17392D9A5B1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0DEE1E-D515-49A8-95B9-86BB5943AE18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E42415E-7CFC-4965-A83B-1C76416C7E70}"/>
 </file>